--- a/example.xlsx
+++ b/example.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -167,6 +167,10 @@
       <b val="1"/>
       <color rgb="FF0070C0"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="7">
@@ -751,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1100,9 @@
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -4841,7 +4848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AG83"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
@@ -9867,7 +9874,7 @@
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -9877,117 +9884,117 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>2,000</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>35,000</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>13,000</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>67,000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>17,000</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>45,000</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>66,000</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>65,000</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
         <is>
           <t>4,000</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>15,000</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>45,000</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>15,000</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>37,000</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>72,000</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>20,000</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>50,000</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>110,000</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>55,000</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>140,000</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>75,000</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>200,000</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t>11,000</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>4,000</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>12,000</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10019,7 +10026,7 @@
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10049,72 +10056,72 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>13,000</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>45,000</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>18,000</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>37,000</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>22,000</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>50,000</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>110,000</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>55,000</t>
-        </is>
-      </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>68,000</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>140,000</t>
+          <t>132,000</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>75,000</t>
+          <t>65,000</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>90,000</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>210,000</t>
+          <t>175,000</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -10129,12 +10136,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -10172,7 +10179,7 @@
     <row r="83">
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10192,135 +10199,141 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>40,850</t>
+          <t>38,850</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>84,910</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>124,990</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,600</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>27,990</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>52,500</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>79,200</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>123,530</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>131,210</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>57,980</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>81,200</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>116,990</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>189,940</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>217,060</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>318,630</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>4,400</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>21,080</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>13,000</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>22,620</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>51,060</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>85,000</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>124,990</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>17,290</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>27,990</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>54,180</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>82,970</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>123,720</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>131,350</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>57,900</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>81,320</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>117,490</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>190,510</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>217,150</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>344,430</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>4,400</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>21,190</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>15,410</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>22,620</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>57,950</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
+      <c r="AC83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AD83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AE83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG83" s="20" t="n"/>
+    </row>
+    <row r="86">
+      <c r="AG86" s="119" t="inlineStr">
+        <is>
+          <t>*빨간음영 : 주력모델</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -10357,7 +10370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10435,6 +10448,28 @@
       </c>
       <c r="N3" s="41" t="n"/>
     </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
     <row r="26" ht="17.25" customHeight="1" s="94" thickBot="1"/>
     <row r="27">
       <c r="B27" s="83" t="inlineStr">
@@ -10442,13 +10477,13 @@
           <t>CPU 7세대 (삼성)</t>
         </is>
       </c>
-      <c r="C27" s="119" t="n"/>
-      <c r="D27" s="119" t="n"/>
-      <c r="E27" s="119" t="n"/>
-      <c r="F27" s="119" t="n"/>
-      <c r="G27" s="119" t="n"/>
-      <c r="H27" s="119" t="n"/>
-      <c r="I27" s="120" t="n"/>
+      <c r="C27" s="120" t="n"/>
+      <c r="D27" s="120" t="n"/>
+      <c r="E27" s="120" t="n"/>
+      <c r="F27" s="120" t="n"/>
+      <c r="G27" s="120" t="n"/>
+      <c r="H27" s="120" t="n"/>
+      <c r="I27" s="121" t="n"/>
       <c r="J27" s="76" t="inlineStr">
         <is>
           <t>비고</t>
@@ -10460,11 +10495,11 @@
           <t>RAM (삼성)</t>
         </is>
       </c>
-      <c r="N27" s="119" t="n"/>
-      <c r="O27" s="119" t="n"/>
-      <c r="P27" s="119" t="n"/>
-      <c r="Q27" s="119" t="n"/>
-      <c r="R27" s="120" t="n"/>
+      <c r="N27" s="120" t="n"/>
+      <c r="O27" s="120" t="n"/>
+      <c r="P27" s="120" t="n"/>
+      <c r="Q27" s="120" t="n"/>
+      <c r="R27" s="121" t="n"/>
       <c r="S27" s="76" t="inlineStr">
         <is>
           <t>비고</t>
@@ -10477,44 +10512,44 @@
           <t>모델명</t>
         </is>
       </c>
-      <c r="C28" s="121" t="n"/>
+      <c r="C28" s="122" t="n"/>
       <c r="D28" s="89" t="inlineStr">
         <is>
           <t>i3-7300</t>
         </is>
       </c>
-      <c r="E28" s="121" t="n"/>
+      <c r="E28" s="122" t="n"/>
       <c r="F28" s="89" t="inlineStr">
         <is>
           <t>i5-7400</t>
         </is>
       </c>
-      <c r="G28" s="121" t="n"/>
+      <c r="G28" s="122" t="n"/>
       <c r="H28" s="89" t="inlineStr">
         <is>
           <t>i7-7700</t>
         </is>
       </c>
-      <c r="I28" s="121" t="n"/>
+      <c r="I28" s="122" t="n"/>
       <c r="J28" s="97" t="n"/>
       <c r="M28" s="87" t="inlineStr">
         <is>
           <t>모델명</t>
         </is>
       </c>
-      <c r="N28" s="122" t="n"/>
+      <c r="N28" s="123" t="n"/>
       <c r="O28" s="86" t="inlineStr">
         <is>
           <t>RAM ddr3 4g 12800</t>
         </is>
       </c>
-      <c r="P28" s="121" t="n"/>
+      <c r="P28" s="122" t="n"/>
       <c r="Q28" s="86" t="inlineStr">
         <is>
           <t>RAM ddr4 8g 25600</t>
         </is>
       </c>
-      <c r="R28" s="121" t="n"/>
+      <c r="R28" s="122" t="n"/>
       <c r="S28" s="97" t="n"/>
     </row>
     <row r="29">
@@ -10935,27 +10970,27 @@
       <c r="C36" s="31" t="n">
         <v>44922</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="124">
         <f>'1. IT 전체 개별단가'!H50</f>
         <v/>
       </c>
-      <c r="E36" s="123">
+      <c r="E36" s="124">
         <f>D36-D35</f>
         <v/>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="124">
         <f>'1. IT 전체 개별단가'!N50</f>
         <v/>
       </c>
-      <c r="G36" s="123">
+      <c r="G36" s="124">
         <f>F36-F35</f>
         <v/>
       </c>
-      <c r="H36" s="123">
+      <c r="H36" s="124">
         <f>'1. IT 전체 개별단가'!T50</f>
         <v/>
       </c>
-      <c r="I36" s="123">
+      <c r="I36" s="124">
         <f>H36-H35</f>
         <v/>
       </c>
@@ -10967,19 +11002,19 @@
       <c r="N36" s="31" t="n">
         <v>44922</v>
       </c>
-      <c r="O36" s="123">
+      <c r="O36" s="124">
         <f>'1. IT 전체 개별단가'!W50</f>
         <v/>
       </c>
-      <c r="P36" s="123">
+      <c r="P36" s="124">
         <f>O36-O35</f>
         <v/>
       </c>
-      <c r="Q36" s="123">
+      <c r="Q36" s="124">
         <f>'1. IT 전체 개별단가'!Z50</f>
         <v/>
       </c>
-      <c r="R36" s="123">
+      <c r="R36" s="124">
         <f>Q36-Q35</f>
         <v/>
       </c>
@@ -11501,27 +11536,27 @@
       <c r="C46" s="52" t="n">
         <v>44992</v>
       </c>
-      <c r="D46" s="124">
+      <c r="D46" s="125">
         <f>'1. IT 전체 개별단가'!H80</f>
         <v/>
       </c>
-      <c r="E46" s="124">
+      <c r="E46" s="125">
         <f>D46-D45</f>
         <v/>
       </c>
-      <c r="F46" s="124">
+      <c r="F46" s="125">
         <f>'1. IT 전체 개별단가'!N80</f>
         <v/>
       </c>
-      <c r="G46" s="124">
+      <c r="G46" s="125">
         <f>F46-F45</f>
         <v/>
       </c>
-      <c r="H46" s="124">
+      <c r="H46" s="125">
         <f>'1. IT 전체 개별단가'!T80</f>
         <v/>
       </c>
-      <c r="I46" s="124">
+      <c r="I46" s="125">
         <f>H46-H45</f>
         <v/>
       </c>
@@ -11532,23 +11567,86 @@
       <c r="N46" s="52" t="n">
         <v>44992</v>
       </c>
-      <c r="O46" s="124">
+      <c r="O46" s="125">
         <f>'1. IT 전체 개별단가'!W80</f>
         <v/>
       </c>
-      <c r="P46" s="124">
+      <c r="P46" s="125">
         <f>O46-O45</f>
         <v/>
       </c>
-      <c r="Q46" s="124">
+      <c r="Q46" s="125">
         <f>'1. IT 전체 개별단가'!Z80</f>
         <v/>
       </c>
-      <c r="R46" s="124">
+      <c r="R46" s="125">
         <f>Q46-Q45</f>
         <v/>
       </c>
       <c r="S46" s="57" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>18</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>i3 변동</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>79,200</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>i5 변동</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>189,940</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>18</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>4,400</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>4g ram 변동</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>22,620</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>8g ram 변동</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
